--- a/outputs-r202/f__Methanobacteriaceae.xlsx
+++ b/outputs-r202/f__Methanobacteriaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,204 +686,204 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG201.fasta</t>
+          <t>RUG031.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.221317203564207e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.221317203564207e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.221317203564207e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.221317203564207e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>5.725628409533584e-06</v>
+        <v>5.488739240371568e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.221317203564207e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9999181216741361</v>
+        <v>2.221317203564207e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>3.84812934389577e-05</v>
+        <v>0.9999970810897015</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.221317203564207e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.221317203564207e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.221317203564207e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.221317203564207e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>3.767140372675903e-05</v>
+        <v>2.370036063423027e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.221317203564207e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.221317203564207e-14</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.221317203564207e-14</v>
       </c>
       <c r="R4" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.221317203564207e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9999181216741361</v>
+        <v>0.9999970810897015</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter</t>
+          <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter</t>
+          <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG344.fasta</t>
+          <t>RUG076.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220382153918637e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220382153918637e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220382153918637e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220382153918637e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>6.067368669123535e-05</v>
+        <v>9.682853856791948e-08</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220382153918637e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220382153918637e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9999374906742018</v>
+        <v>0.0004693734414451209</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>0.9995101019771865</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220382153918637e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220382153918637e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220382153918637e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>1.835638796097161e-06</v>
+        <v>2.042775254127888e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220382153918637e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220382153918637e-14</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220382153918637e-14</v>
       </c>
       <c r="R5" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220382153918637e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9999374906742018</v>
+        <v>0.9995101019771865</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter_A</t>
+          <t>g__Methanobrevibacter_B</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter_A</t>
+          <t>g__Methanobrevibacter_B</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG545.fasta</t>
+          <t>RUG092.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220555892233643e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220555892233643e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220555892233643e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220555892233643e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>4.473280037763182e-06</v>
+        <v>2.606664526164704e-07</v>
       </c>
       <c r="G6" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220555892233643e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220555892233643e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9999936205440128</v>
+        <v>0.9999979196284944</v>
       </c>
       <c r="J6" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220555892233643e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220555892233643e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220555892233643e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220555892233643e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>1.906175638582524e-06</v>
+        <v>1.819704742164094e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220555892233643e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220555892233643e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220555892233643e-14</v>
       </c>
       <c r="R6" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220555892233643e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9999936205440128</v>
+        <v>0.9999979196284944</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -899,62 +899,62 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG593.fasta</t>
+          <t>RUG186.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.220631154956049e-14</v>
+        <v>2.220464308763348e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220631154956049e-14</v>
+        <v>2.220464308763348e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220631154956049e-14</v>
+        <v>2.220464308763348e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220631154956049e-14</v>
+        <v>2.220464308763348e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>9.390887945775496e-06</v>
+        <v>1.021205049744072e-08</v>
       </c>
       <c r="G7" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220464308763348e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220464308763348e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>0.999987578407871</v>
+        <v>0.999997971273393</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220464308763348e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220464308763348e-14</v>
       </c>
       <c r="L7" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220464308763348e-14</v>
       </c>
       <c r="M7" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220464308763348e-14</v>
       </c>
       <c r="N7" t="n">
-        <v>3.030703872323643e-06</v>
+        <v>2.018514245692809e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220464308763348e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220464308763348e-14</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220464308763348e-14</v>
       </c>
       <c r="R7" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220464308763348e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>0.999987578407871</v>
+        <v>0.999997971273393</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -970,142 +970,852 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG648.fasta</t>
+          <t>RUG201.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220435357338215e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220435357338215e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220435357338215e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220435357338215e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>2.337250966438468e-07</v>
+        <v>5.725628409533584e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220435357338215e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>0.9999181216741361</v>
       </c>
       <c r="I8" t="n">
-        <v>0.999996742664933</v>
+        <v>3.84812934389577e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220435357338215e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220435357338215e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220435357338215e-14</v>
       </c>
       <c r="M8" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220435357338215e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>3.023609659444038e-06</v>
+        <v>3.767140372675903e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220435357338215e-14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220435357338215e-14</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220435357338215e-14</v>
       </c>
       <c r="R8" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220435357338215e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>0.999996742664933</v>
+        <v>0.9999181216741361</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter_A</t>
+          <t>g__Methanobrevibacter</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter_A</t>
+          <t>g__Methanobrevibacter</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>RUG236.fasta</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.220517954938635e-14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.220517954938635e-14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.220517954938635e-14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.220517954938635e-14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.09008705125715e-06</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.220517954938635e-14</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.220517954938635e-14</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9999895578066976</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.220517954938635e-14</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.220517954938635e-14</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.220517954938635e-14</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.220517954938635e-14</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.352105940234147e-06</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.220517954938635e-14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.220517954938635e-14</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.220517954938635e-14</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.220517954938635e-14</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.9999895578066976</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG256.fasta</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.220538603509312e-14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.220538603509312e-14</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.220538603509312e-14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.220538603509312e-14</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.151372657150354e-07</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.220538603509312e-14</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.220538603509312e-14</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9999974542723782</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.220538603509312e-14</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.220538603509312e-14</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.220538603509312e-14</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.220538603509312e-14</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.030590045256193e-06</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.220538603509312e-14</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.220538603509312e-14</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.220538603509312e-14</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.220538603509312e-14</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.9999974542723782</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG338.fasta</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.220525982856546e-14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.220525982856546e-14</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.220525982856546e-14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.220525982856546e-14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.941560875010509e-08</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.220525982856546e-14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.220525982856546e-14</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9999973190129068</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.220525982856546e-14</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.220525982856546e-14</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.220525982856546e-14</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2.220525982856546e-14</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.65157117356186e-06</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.220525982856546e-14</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.220525982856546e-14</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.220525982856546e-14</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.220525982856546e-14</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.9999973190129068</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG344.fasta</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.220441397940083e-14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.220441397940083e-14</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.220441397940083e-14</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.220441397940083e-14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6.067368669123535e-05</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.220441397940083e-14</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.220441397940083e-14</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9999374906742018</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.220441397940083e-14</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.220441397940083e-14</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.220441397940083e-14</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.220441397940083e-14</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.835638796097161e-06</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.220441397940083e-14</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.220441397940083e-14</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.220441397940083e-14</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.220441397940083e-14</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.9999374906742018</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG526.fasta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.221530770149089e-14</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.221530770149089e-14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.221530770149089e-14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.221530770149089e-14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7.380360604737114e-07</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.221530770149089e-14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.221530770149089e-14</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9999965354549913</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.221530770149089e-14</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.221530770149088e-14</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.221530770149088e-14</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.221530770149088e-14</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.726508637394207e-06</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2.221530770149088e-14</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.221530770149088e-14</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.221530770149088e-14</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.221530770149088e-14</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.9999965354549913</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>RUG545.fasta</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2.220698249247766e-14</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.220698249247766e-14</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.220698249247766e-14</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.220698249247766e-14</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.473280037763182e-06</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.220698249247766e-14</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.220698249247766e-14</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9999936205440128</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.220698249247766e-14</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.220698249247766e-14</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.220698249247766e-14</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2.220698249247766e-14</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.906175638582524e-06</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.220698249247766e-14</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.220698249247766e-14</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.220698249247766e-14</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.220698249247766e-14</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.9999936205440128</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG593.fasta</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.220631154956049e-14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.220631154956049e-14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.220631154956049e-14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.220631154956049e-14</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.390887945775496e-06</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.220631154956048e-14</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.220631154956048e-14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.999987578407871</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.220631154956048e-14</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.220631154956048e-14</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.220631154956048e-14</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.220631154956048e-14</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.030703872323643e-06</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.220631154956048e-14</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.220631154956048e-14</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.220631154956048e-14</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.220631154956048e-14</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.999987578407871</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG648.fasta</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.221258871488482e-14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.221258871488482e-14</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.221258871488482e-14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.221258871488482e-14</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.337250966438468e-07</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.221258871488482e-14</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.221258871488482e-14</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.999996742664933</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.221258871488482e-14</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.221258871488482e-14</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.221258871488482e-14</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.221258871488482e-14</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.023609659444038e-06</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.221258871488482e-14</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.221258871488482e-14</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.221258871488482e-14</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.221258871488482e-14</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.999996742664933</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
           <t>RUG748.fasta</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B17" t="n">
         <v>2.22044546007921e-14</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C17" t="n">
         <v>2.22044546007921e-14</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D17" t="n">
         <v>2.22044546007921e-14</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E17" t="n">
         <v>2.22044546007921e-14</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F17" t="n">
         <v>1.411277088784373e-08</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G17" t="n">
         <v>2.22044546007921e-14</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H17" t="n">
         <v>0.9999954891759844</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I17" t="n">
         <v>3.480909701604858e-07</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J17" t="n">
         <v>2.22044546007921e-14</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K17" t="n">
         <v>2.22044546007921e-14</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L17" t="n">
         <v>2.22044546007921e-14</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M17" t="n">
         <v>2.22044546007921e-14</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N17" t="n">
         <v>4.148619986086772e-06</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O17" t="n">
         <v>2.22044546007921e-14</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P17" t="n">
         <v>2.22044546007921e-14</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q17" t="n">
         <v>2.22044546007921e-14</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R17" t="n">
         <v>2.22044546007921e-14</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S17" t="n">
         <v>0.9999954891759844</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>g__Methanobrevibacter</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>g__Methanobrevibacter</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG780.fasta</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2.225854481990013e-14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.225854481990013e-14</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.225854481990013e-14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.225854481990013e-14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.996395917065415e-07</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.225854481990013e-14</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.225854481990013e-14</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9999926911207789</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.225854481990013e-14</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.225854481990013e-14</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.225854481990013e-14</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.225854481990013e-14</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6.909239318141269e-06</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.225854481990013e-14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.225854481990013e-14</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.225854481990013e-14</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.225854481990013e-14</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.9999926911207789</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG787.fasta</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.220455056046281e-14</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.220455056046281e-14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.220455056046281e-14</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.220455056046281e-14</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.973049145674596e-05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.220455056046281e-14</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.220455056046281e-14</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9999724072843058</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.220455056046281e-14</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.22045505604628e-14</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.22045505604628e-14</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.22045505604628e-14</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.862223926489639e-06</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2.220455056046281e-14</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.220455056046281e-14</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.220455056046281e-14</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.220455056046281e-14</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.9999724072843058</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/f__Methanobacteriaceae.xlsx
+++ b/outputs-r202/f__Methanobacteriaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -601,6 +606,11 @@
           <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -667,6 +677,11 @@
           <t>g__Methanobrevibacter</t>
         </is>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -733,6 +748,11 @@
           <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -799,6 +819,11 @@
           <t>g__Methanobrevibacter_B</t>
         </is>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_B</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -865,6 +890,11 @@
           <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -931,6 +961,11 @@
           <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -997,6 +1032,11 @@
           <t>g__Methanobrevibacter</t>
         </is>
       </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1063,6 +1103,11 @@
           <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1129,6 +1174,11 @@
           <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1195,6 +1245,11 @@
           <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1261,6 +1316,11 @@
           <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1327,6 +1387,11 @@
           <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1393,6 +1458,11 @@
           <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1459,6 +1529,11 @@
           <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1525,6 +1600,11 @@
           <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1591,6 +1671,11 @@
           <t>g__Methanobrevibacter</t>
         </is>
       </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1657,6 +1742,11 @@
           <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1723,6 +1813,11 @@
           <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1785,6 +1880,11 @@
         <v>0.9995731715167206</v>
       </c>
       <c r="T20" t="inlineStr">
+        <is>
+          <t>g__Methanobrevibacter_A</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>g__Methanobrevibacter_A</t>
         </is>

--- a/outputs-r202/f__Methanobacteriaceae.xlsx
+++ b/outputs-r202/f__Methanobacteriaceae.xlsx
@@ -548,58 +548,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.220446020389885e-14</v>
+        <v>2.220441459140962e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220446020389885e-14</v>
+        <v>2.220441459140962e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220446020389885e-14</v>
+        <v>2.220441459140962e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>2.220446020389885e-14</v>
+        <v>2.220441459140962e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>4.294125708042181e-05</v>
+        <v>9.531517569682112e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>2.220446020389885e-14</v>
+        <v>2.220441459140962e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>2.220446020389885e-14</v>
+        <v>2.220441459140962e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9999547557006282</v>
+        <v>0.9999029195635896</v>
       </c>
       <c r="J2" t="n">
-        <v>2.220446020389885e-14</v>
+        <v>2.220441459140962e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>2.220446020389885e-14</v>
+        <v>2.220441459140962e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.220446020389885e-14</v>
+        <v>2.220441459140962e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>2.220446020389885e-14</v>
+        <v>2.220441459140962e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>2.303041980411521e-06</v>
+        <v>1.76526040261639e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>2.220446020389885e-14</v>
+        <v>2.220441459140962e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>2.220446020389885e-14</v>
+        <v>2.220441459140962e-14</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.220446020389885e-14</v>
+        <v>2.220441459140962e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>2.220446020389885e-14</v>
+        <v>2.220441459140962e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9999547557006282</v>
+        <v>0.9999029195635896</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -615,275 +615,275 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG020.fasta</t>
+          <t>RUG031.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.22028703672385e-14</v>
+        <v>2.220539343098938e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>2.22028703672385e-14</v>
+        <v>2.220539343098938e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.22028703672385e-14</v>
+        <v>2.220539343098938e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.22028703672385e-14</v>
+        <v>2.220539343098938e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002038524446267545</v>
+        <v>1.417125277954385e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>2.22028703672385e-14</v>
+        <v>2.220539343098938e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9987781782264608</v>
+        <v>2.220539343098938e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001005999411717362</v>
+        <v>0.9999972754204711</v>
       </c>
       <c r="J3" t="n">
-        <v>2.22028703672385e-14</v>
+        <v>2.220539343098938e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.22028703672385e-14</v>
+        <v>2.220539343098938e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>2.22028703672385e-14</v>
+        <v>2.220539343098938e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>2.22028703672385e-14</v>
+        <v>2.220539343098938e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>1.196991690655971e-05</v>
+        <v>1.307453940017116e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>2.22028703672385e-14</v>
+        <v>2.220539343098938e-14</v>
       </c>
       <c r="P3" t="n">
-        <v>2.22028703672385e-14</v>
+        <v>2.220539343098938e-14</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22028703672385e-14</v>
+        <v>2.220539343098938e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>2.22028703672385e-14</v>
+        <v>2.220539343098938e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9987781782264608</v>
+        <v>0.9999972754204711</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter</t>
+          <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter</t>
+          <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG031.fasta</t>
+          <t>RUG076.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.221317203564207e-14</v>
+        <v>2.220366548308267e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.221317203564207e-14</v>
+        <v>2.220366548308267e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.221317203564207e-14</v>
+        <v>2.220366548308267e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.221317203564207e-14</v>
+        <v>2.220366548308267e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>5.488739240371568e-07</v>
+        <v>1.22099759390629e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>2.221317203564207e-14</v>
+        <v>2.220366548308267e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.221317203564207e-14</v>
+        <v>2.220366548308267e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9999970810897015</v>
+        <v>0.0005945167676245422</v>
       </c>
       <c r="J4" t="n">
-        <v>2.221317203564207e-14</v>
+        <v>0.9993902348834264</v>
       </c>
       <c r="K4" t="n">
-        <v>2.221317203564207e-14</v>
+        <v>2.220366548308267e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>2.221317203564207e-14</v>
+        <v>2.220366548308267e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>2.221317203564207e-14</v>
+        <v>2.220366548308267e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.370036063423027e-06</v>
+        <v>1.512624890111961e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>2.221317203564207e-14</v>
+        <v>2.220366548308267e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.221317203564207e-14</v>
+        <v>2.220366548308267e-14</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.221317203564207e-14</v>
+        <v>2.220366548308267e-14</v>
       </c>
       <c r="R4" t="n">
-        <v>2.221317203564207e-14</v>
+        <v>2.220366548308267e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9999970810897015</v>
+        <v>0.9993902348834264</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter_A</t>
+          <t>g__Methanobrevibacter_B</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter_A</t>
+          <t>g__Methanobrevibacter_B</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG076.fasta</t>
+          <t>RUG092.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220382153918637e-14</v>
+        <v>2.220501800294634e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220382153918637e-14</v>
+        <v>2.220501800294634e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220382153918637e-14</v>
+        <v>2.220501800294634e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220382153918637e-14</v>
+        <v>2.220501800294634e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>9.682853856791948e-08</v>
+        <v>1.266196910862383e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220382153918637e-14</v>
+        <v>2.220501800294634e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220382153918637e-14</v>
+        <v>2.220501800294634e-14</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004693734414451209</v>
+        <v>0.999997467270657</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9995101019771865</v>
+        <v>2.220501800294634e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220382153918637e-14</v>
+        <v>2.220501800294634e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>2.220382153918637e-14</v>
+        <v>2.220501800294634e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>2.220382153918637e-14</v>
+        <v>2.220501800294634e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>2.042775254127888e-05</v>
+        <v>1.266532121254082e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>2.220382153918637e-14</v>
+        <v>2.220501800294634e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>2.220382153918637e-14</v>
+        <v>2.220501800294634e-14</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.220382153918637e-14</v>
+        <v>2.220501800294634e-14</v>
       </c>
       <c r="R5" t="n">
-        <v>2.220382153918637e-14</v>
+        <v>2.220501800294634e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9995101019771865</v>
+        <v>0.999997467270657</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter_B</t>
+          <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter_B</t>
+          <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG092.fasta</t>
+          <t>RUG186.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.220555892233643e-14</v>
+        <v>2.220484926700453e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.220555892233643e-14</v>
+        <v>2.220484926700453e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220555892233643e-14</v>
+        <v>2.220484926700453e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.220555892233643e-14</v>
+        <v>2.220484926700453e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.606664526164704e-07</v>
+        <v>5.727195515941039e-08</v>
       </c>
       <c r="G6" t="n">
-        <v>2.220555892233643e-14</v>
+        <v>2.220484926700453e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.220555892233643e-14</v>
+        <v>2.220484926700453e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9999979196284944</v>
+        <v>0.9999977202528739</v>
       </c>
       <c r="J6" t="n">
-        <v>2.220555892233643e-14</v>
+        <v>2.220484926700453e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>2.220555892233643e-14</v>
+        <v>2.220484926700453e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>2.220555892233643e-14</v>
+        <v>2.220484926700453e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>2.220555892233643e-14</v>
+        <v>2.220484926700453e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>1.819704742164094e-06</v>
+        <v>2.22247486003851e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>2.220555892233643e-14</v>
+        <v>2.220484926700453e-14</v>
       </c>
       <c r="P6" t="n">
-        <v>2.220555892233643e-14</v>
+        <v>2.220484926700453e-14</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.220555892233643e-14</v>
+        <v>2.220484926700453e-14</v>
       </c>
       <c r="R6" t="n">
-        <v>2.220555892233643e-14</v>
+        <v>2.220484926700453e-14</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9999979196284944</v>
+        <v>0.9999977202528739</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -899,62 +899,62 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG186.fasta</t>
+          <t>RUG236.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.220464308763348e-14</v>
+        <v>2.220442699942962e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220464308763348e-14</v>
+        <v>2.220442699942962e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220464308763348e-14</v>
+        <v>2.220442699942962e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220464308763348e-14</v>
+        <v>2.220442699942962e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>1.021205049744072e-08</v>
+        <v>6.42634341900596e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>2.220464308763348e-14</v>
+        <v>2.220442699942962e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220464308763348e-14</v>
+        <v>2.220442699942962e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>0.999997971273393</v>
+        <v>0.9999346859404128</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220464308763348e-14</v>
+        <v>2.220442699942962e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>2.220464308763348e-14</v>
+        <v>2.220442699942962e-14</v>
       </c>
       <c r="L7" t="n">
-        <v>2.220464308763348e-14</v>
+        <v>2.220442699942962e-14</v>
       </c>
       <c r="M7" t="n">
-        <v>2.220464308763348e-14</v>
+        <v>2.220442699942962e-14</v>
       </c>
       <c r="N7" t="n">
-        <v>2.018514245692809e-06</v>
+        <v>1.050625086216208e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>2.220464308763348e-14</v>
+        <v>2.220442699942962e-14</v>
       </c>
       <c r="P7" t="n">
-        <v>2.220464308763348e-14</v>
+        <v>2.220442699942962e-14</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.220464308763348e-14</v>
+        <v>2.220442699942962e-14</v>
       </c>
       <c r="R7" t="n">
-        <v>2.220464308763348e-14</v>
+        <v>2.220442699942962e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>0.999997971273393</v>
+        <v>0.9999346859404128</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -970,133 +970,133 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG201.fasta</t>
+          <t>RUG256.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.220491495128973e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.220491495128973e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.220491495128973e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.220491495128973e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>5.725628409533584e-06</v>
+        <v>1.675803051765092e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.220491495128974e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9999181216741361</v>
+        <v>2.220491495128974e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>3.84812934389577e-05</v>
+        <v>0.9999971303882186</v>
       </c>
       <c r="J8" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.220491495128974e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.220491495128974e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.220491495128974e-14</v>
       </c>
       <c r="M8" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.220491495128974e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>3.767140372675903e-05</v>
+        <v>1.193808418806438e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.220491495128974e-14</v>
       </c>
       <c r="P8" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.220491495128974e-14</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.220491495128974e-14</v>
       </c>
       <c r="R8" t="n">
-        <v>2.220435357338215e-14</v>
+        <v>2.220491495128974e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9999181216741361</v>
+        <v>0.9999971303882186</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter</t>
+          <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter</t>
+          <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG236.fasta</t>
+          <t>RUG338.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.220517954938635e-14</v>
+        <v>2.220488299459161e-14</v>
       </c>
       <c r="C9" t="n">
-        <v>2.220517954938635e-14</v>
+        <v>2.220488299459161e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>2.220517954938635e-14</v>
+        <v>2.220488299459161e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>2.220517954938635e-14</v>
+        <v>2.220488299459161e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>7.09008705125715e-06</v>
+        <v>6.958944093549155e-08</v>
       </c>
       <c r="G9" t="n">
-        <v>2.220517954938635e-14</v>
+        <v>2.220488299459161e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.220517954938635e-14</v>
+        <v>2.220488299459161e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9999895578066976</v>
+        <v>0.9999978536438964</v>
       </c>
       <c r="J9" t="n">
-        <v>2.220517954938635e-14</v>
+        <v>2.220488299459161e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>2.220517954938635e-14</v>
+        <v>2.22048829945916e-14</v>
       </c>
       <c r="L9" t="n">
-        <v>2.220517954938635e-14</v>
+        <v>2.22048829945916e-14</v>
       </c>
       <c r="M9" t="n">
-        <v>2.220517954938635e-14</v>
+        <v>2.22048829945916e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>3.352105940234147e-06</v>
+        <v>2.076766351789029e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>2.220517954938635e-14</v>
+        <v>2.22048829945916e-14</v>
       </c>
       <c r="P9" t="n">
-        <v>2.220517954938635e-14</v>
+        <v>2.22048829945916e-14</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.220517954938635e-14</v>
+        <v>2.22048829945916e-14</v>
       </c>
       <c r="R9" t="n">
-        <v>2.220517954938635e-14</v>
+        <v>2.22048829945916e-14</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9999895578066976</v>
+        <v>0.9999978536438964</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1112,62 +1112,62 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG256.fasta</t>
+          <t>RUG344.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.220538603509312e-14</v>
+        <v>2.220438539975193e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220538603509312e-14</v>
+        <v>2.220438539975193e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>2.220538603509312e-14</v>
+        <v>2.220438539975193e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>2.220538603509312e-14</v>
+        <v>2.220438539975193e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>5.151372657150354e-07</v>
+        <v>7.093595329088118e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>2.220538603509312e-14</v>
+        <v>2.220438539975193e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.220538603509312e-14</v>
+        <v>2.220438539975193e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9999974542723782</v>
+        <v>0.9999282011581373</v>
       </c>
       <c r="J10" t="n">
-        <v>2.220538603509312e-14</v>
+        <v>2.220438539975193e-14</v>
       </c>
       <c r="K10" t="n">
-        <v>2.220538603509312e-14</v>
+        <v>2.220438539975193e-14</v>
       </c>
       <c r="L10" t="n">
-        <v>2.220538603509312e-14</v>
+        <v>2.220438539975193e-14</v>
       </c>
       <c r="M10" t="n">
-        <v>2.220538603509312e-14</v>
+        <v>2.220438539975193e-14</v>
       </c>
       <c r="N10" t="n">
-        <v>2.030590045256193e-06</v>
+        <v>8.628882609343046e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>2.220538603509312e-14</v>
+        <v>2.220438539975193e-14</v>
       </c>
       <c r="P10" t="n">
-        <v>2.220538603509312e-14</v>
+        <v>2.220438539975193e-14</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.220538603509312e-14</v>
+        <v>2.220438539975193e-14</v>
       </c>
       <c r="R10" t="n">
-        <v>2.220538603509312e-14</v>
+        <v>2.220438539975193e-14</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9999974542723782</v>
+        <v>0.9999282011581373</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1183,62 +1183,62 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG338.fasta</t>
+          <t>RUG492.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.220525982856546e-14</v>
+        <v>2.220849733449294e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>2.220525982856546e-14</v>
+        <v>2.220849733449294e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>2.220525982856546e-14</v>
+        <v>2.220849733449294e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>2.220525982856546e-14</v>
+        <v>2.220849733449294e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>2.941560875010509e-08</v>
+        <v>2.09692392433366e-07</v>
       </c>
       <c r="G11" t="n">
-        <v>2.220525982856546e-14</v>
+        <v>2.220849733449294e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.220525982856546e-14</v>
+        <v>2.220849733449294e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9999973190129068</v>
+        <v>0.9999952872656733</v>
       </c>
       <c r="J11" t="n">
-        <v>2.220525982856546e-14</v>
+        <v>2.220849733449294e-14</v>
       </c>
       <c r="K11" t="n">
-        <v>2.220525982856546e-14</v>
+        <v>2.220849733449294e-14</v>
       </c>
       <c r="L11" t="n">
-        <v>2.220525982856546e-14</v>
+        <v>2.220849733449294e-14</v>
       </c>
       <c r="M11" t="n">
-        <v>2.220525982856546e-14</v>
+        <v>2.220849733449294e-14</v>
       </c>
       <c r="N11" t="n">
-        <v>2.65157117356186e-06</v>
+        <v>4.50304162334998e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>2.220525982856546e-14</v>
+        <v>2.220849733449294e-14</v>
       </c>
       <c r="P11" t="n">
-        <v>2.220525982856546e-14</v>
+        <v>2.220849733449294e-14</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.220525982856546e-14</v>
+        <v>2.220849733449294e-14</v>
       </c>
       <c r="R11" t="n">
-        <v>2.220525982856546e-14</v>
+        <v>2.220849733449294e-14</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9999973190129068</v>
+        <v>0.9999952872656733</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1254,62 +1254,62 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG344.fasta</t>
+          <t>RUG526.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220607892877372e-14</v>
       </c>
       <c r="C12" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220607892877372e-14</v>
       </c>
       <c r="D12" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220607892877372e-14</v>
       </c>
       <c r="E12" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220607892877372e-14</v>
       </c>
       <c r="F12" t="n">
-        <v>6.067368669123535e-05</v>
+        <v>1.516531857293465e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220607892877372e-14</v>
       </c>
       <c r="H12" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220607892877372e-14</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9999374906742018</v>
+        <v>0.9999968418868399</v>
       </c>
       <c r="J12" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220607892877372e-14</v>
       </c>
       <c r="K12" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220607892877372e-14</v>
       </c>
       <c r="L12" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220607892877372e-14</v>
       </c>
       <c r="M12" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220607892877372e-14</v>
       </c>
       <c r="N12" t="n">
-        <v>1.835638796097161e-06</v>
+        <v>1.64158099186807e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220607892877372e-14</v>
       </c>
       <c r="P12" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220607892877372e-14</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220607892877372e-14</v>
       </c>
       <c r="R12" t="n">
-        <v>2.220441397940083e-14</v>
+        <v>2.220607892877372e-14</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9999374906742018</v>
+        <v>0.9999968418868399</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1325,62 +1325,62 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG526.fasta</t>
+          <t>RUG545.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.221530770149089e-14</v>
+        <v>2.220559579999061e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>2.221530770149089e-14</v>
+        <v>2.220559579999061e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>2.221530770149089e-14</v>
+        <v>2.220559579999061e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>2.221530770149089e-14</v>
+        <v>2.220559579999061e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>7.380360604737114e-07</v>
+        <v>8.253549458249468e-06</v>
       </c>
       <c r="G13" t="n">
-        <v>2.221530770149089e-14</v>
+        <v>2.220559579999061e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>2.221530770149089e-14</v>
+        <v>2.220559579999061e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9999965354549913</v>
+        <v>0.9999906336890773</v>
       </c>
       <c r="J13" t="n">
-        <v>2.221530770149089e-14</v>
+        <v>2.220559579999061e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>2.221530770149088e-14</v>
+        <v>2.22055957999906e-14</v>
       </c>
       <c r="L13" t="n">
-        <v>2.221530770149088e-14</v>
+        <v>2.22055957999906e-14</v>
       </c>
       <c r="M13" t="n">
-        <v>2.221530770149088e-14</v>
+        <v>2.22055957999906e-14</v>
       </c>
       <c r="N13" t="n">
-        <v>2.726508637394207e-06</v>
+        <v>1.112761153651467e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>2.221530770149088e-14</v>
+        <v>2.22055957999906e-14</v>
       </c>
       <c r="P13" t="n">
-        <v>2.221530770149088e-14</v>
+        <v>2.22055957999906e-14</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.221530770149088e-14</v>
+        <v>2.22055957999906e-14</v>
       </c>
       <c r="R13" t="n">
-        <v>2.221530770149088e-14</v>
+        <v>2.22055957999906e-14</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9999965354549913</v>
+        <v>0.9999906336890773</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1396,62 +1396,62 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RUG545.fasta</t>
+          <t>RUG593.fasta</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220444169979953e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220444169979953e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220444169979953e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220444169979953e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>4.473280037763182e-06</v>
+        <v>5.636861497827824e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220444169979953e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220444169979953e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9999936205440128</v>
+        <v>0.9999421578015006</v>
       </c>
       <c r="J14" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220444169979953e-14</v>
       </c>
       <c r="K14" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220444169979953e-14</v>
       </c>
       <c r="L14" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220444169979953e-14</v>
       </c>
       <c r="M14" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220444169979953e-14</v>
       </c>
       <c r="N14" t="n">
-        <v>1.906175638582524e-06</v>
+        <v>1.473583210265091e-06</v>
       </c>
       <c r="O14" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220444169979953e-14</v>
       </c>
       <c r="P14" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220444169979953e-14</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220444169979953e-14</v>
       </c>
       <c r="R14" t="n">
-        <v>2.220698249247766e-14</v>
+        <v>2.220444169979953e-14</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9999936205440128</v>
+        <v>0.9999421578015006</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -1467,62 +1467,62 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RUG593.fasta</t>
+          <t>RUG648.fasta</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.220631154956049e-14</v>
+        <v>2.220611499818166e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>2.220631154956049e-14</v>
+        <v>2.220611499818166e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>2.220631154956049e-14</v>
+        <v>2.220611499818166e-14</v>
       </c>
       <c r="E15" t="n">
-        <v>2.220631154956049e-14</v>
+        <v>2.220611499818166e-14</v>
       </c>
       <c r="F15" t="n">
-        <v>9.390887945775496e-06</v>
+        <v>1.957028234995195e-06</v>
       </c>
       <c r="G15" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220611499818166e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220611499818166e-14</v>
       </c>
       <c r="I15" t="n">
-        <v>0.999987578407871</v>
+        <v>0.9999966770110895</v>
       </c>
       <c r="J15" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220611499818166e-14</v>
       </c>
       <c r="K15" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220611499818166e-14</v>
       </c>
       <c r="L15" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220611499818166e-14</v>
       </c>
       <c r="M15" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220611499818166e-14</v>
       </c>
       <c r="N15" t="n">
-        <v>3.030703872323643e-06</v>
+        <v>1.365960364572358e-06</v>
       </c>
       <c r="O15" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220611499818166e-14</v>
       </c>
       <c r="P15" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220611499818166e-14</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220611499818166e-14</v>
       </c>
       <c r="R15" t="n">
-        <v>2.220631154956048e-14</v>
+        <v>2.220611499818166e-14</v>
       </c>
       <c r="S15" t="n">
-        <v>0.999987578407871</v>
+        <v>0.9999966770110895</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -1538,204 +1538,204 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG648.fasta</t>
+          <t>RUG748.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220445591950461e-14</v>
       </c>
       <c r="C16" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220445591950461e-14</v>
       </c>
       <c r="D16" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220445591950461e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220445591950461e-14</v>
       </c>
       <c r="F16" t="n">
-        <v>2.337250966438468e-07</v>
+        <v>8.757657202479669e-09</v>
       </c>
       <c r="G16" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220445591950461e-14</v>
       </c>
       <c r="H16" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>0.9999964988218796</v>
       </c>
       <c r="I16" t="n">
-        <v>0.999996742664933</v>
+        <v>1.434985714368245e-08</v>
       </c>
       <c r="J16" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220445591950461e-14</v>
       </c>
       <c r="K16" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220445591950461e-14</v>
       </c>
       <c r="L16" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220445591950461e-14</v>
       </c>
       <c r="M16" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220445591950461e-14</v>
       </c>
       <c r="N16" t="n">
-        <v>3.023609659444038e-06</v>
+        <v>3.478070317538094e-06</v>
       </c>
       <c r="O16" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220445591950461e-14</v>
       </c>
       <c r="P16" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220445591950461e-14</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220445591950461e-14</v>
       </c>
       <c r="R16" t="n">
-        <v>2.221258871488482e-14</v>
+        <v>2.220445591950461e-14</v>
       </c>
       <c r="S16" t="n">
-        <v>0.999996742664933</v>
+        <v>0.9999964988218796</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter_A</t>
+          <t>g__Methanobrevibacter</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter_A</t>
+          <t>g__Methanobrevibacter</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG748.fasta</t>
+          <t>RUG780.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.22044546007921e-14</v>
+        <v>2.22169324228199e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>2.22044546007921e-14</v>
+        <v>2.22169324228199e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>2.22044546007921e-14</v>
+        <v>2.22169324228199e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>2.22044546007921e-14</v>
+        <v>2.22169324228199e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>1.411277088784373e-08</v>
+        <v>1.974044093716597e-07</v>
       </c>
       <c r="G17" t="n">
-        <v>2.22044546007921e-14</v>
+        <v>2.22169324228199e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9999954891759844</v>
+        <v>2.22169324228199e-14</v>
       </c>
       <c r="I17" t="n">
-        <v>3.480909701604858e-07</v>
+        <v>0.9999961145624405</v>
       </c>
       <c r="J17" t="n">
-        <v>2.22044546007921e-14</v>
+        <v>2.22169324228199e-14</v>
       </c>
       <c r="K17" t="n">
-        <v>2.22044546007921e-14</v>
+        <v>2.22169324228199e-14</v>
       </c>
       <c r="L17" t="n">
-        <v>2.22044546007921e-14</v>
+        <v>2.22169324228199e-14</v>
       </c>
       <c r="M17" t="n">
-        <v>2.22044546007921e-14</v>
+        <v>2.22169324228199e-14</v>
       </c>
       <c r="N17" t="n">
-        <v>4.148619986086772e-06</v>
+        <v>3.688032839194074e-06</v>
       </c>
       <c r="O17" t="n">
-        <v>2.22044546007921e-14</v>
+        <v>2.22169324228199e-14</v>
       </c>
       <c r="P17" t="n">
-        <v>2.22044546007921e-14</v>
+        <v>2.22169324228199e-14</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.22044546007921e-14</v>
+        <v>2.22169324228199e-14</v>
       </c>
       <c r="R17" t="n">
-        <v>2.22044546007921e-14</v>
+        <v>2.22169324228199e-14</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9999954891759844</v>
+        <v>0.9999961145624405</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter</t>
+          <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>g__Methanobrevibacter</t>
+          <t>g__Methanobrevibacter_A</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG780.fasta</t>
+          <t>RUG787.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.225854481990013e-14</v>
+        <v>2.220438693214535e-14</v>
       </c>
       <c r="C18" t="n">
-        <v>2.225854481990013e-14</v>
+        <v>2.220438693214535e-14</v>
       </c>
       <c r="D18" t="n">
-        <v>2.225854481990013e-14</v>
+        <v>2.220438693214535e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>2.225854481990013e-14</v>
+        <v>2.220438693214535e-14</v>
       </c>
       <c r="F18" t="n">
-        <v>3.996395917065415e-07</v>
+        <v>8.828179219308426e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>2.225854481990013e-14</v>
+        <v>2.220438693214535e-14</v>
       </c>
       <c r="H18" t="n">
-        <v>2.225854481990013e-14</v>
+        <v>2.220438693214535e-14</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9999926911207789</v>
+        <v>0.9999086431878095</v>
       </c>
       <c r="J18" t="n">
-        <v>2.225854481990013e-14</v>
+        <v>2.220438693214535e-14</v>
       </c>
       <c r="K18" t="n">
-        <v>2.225854481990013e-14</v>
+        <v>2.220438693214535e-14</v>
       </c>
       <c r="L18" t="n">
-        <v>2.225854481990013e-14</v>
+        <v>2.220438693214535e-14</v>
       </c>
       <c r="M18" t="n">
-        <v>2.225854481990013e-14</v>
+        <v>2.220438693214535e-14</v>
       </c>
       <c r="N18" t="n">
-        <v>6.909239318141269e-06</v>
+        <v>3.075019686483698e-06</v>
       </c>
       <c r="O18" t="n">
-        <v>2.225854481990013e-14</v>
+        <v>2.220438693214535e-14</v>
       </c>
       <c r="P18" t="n">
-        <v>2.225854481990013e-14</v>
+        <v>2.220438693214535e-14</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.225854481990013e-14</v>
+        <v>2.220438693214535e-14</v>
       </c>
       <c r="R18" t="n">
-        <v>2.225854481990013e-14</v>
+        <v>2.220438693214535e-14</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9999926911207789</v>
+        <v>0.9999086431878095</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -1751,62 +1751,62 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG787.fasta</t>
+          <t>RUG823.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.220455056046281e-14</v>
+        <v>2.220392179566892e-14</v>
       </c>
       <c r="C19" t="n">
-        <v>2.220455056046281e-14</v>
+        <v>2.220392179566892e-14</v>
       </c>
       <c r="D19" t="n">
-        <v>2.220455056046281e-14</v>
+        <v>2.220392179566892e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>2.220455056046281e-14</v>
+        <v>2.220392179566892e-14</v>
       </c>
       <c r="F19" t="n">
-        <v>1.973049145674596e-05</v>
+        <v>0.0006193253833985228</v>
       </c>
       <c r="G19" t="n">
-        <v>2.220455056046281e-14</v>
+        <v>2.220392179566892e-14</v>
       </c>
       <c r="H19" t="n">
-        <v>2.220455056046281e-14</v>
+        <v>2.220392179566892e-14</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9999724072843058</v>
+        <v>0.9993797809570497</v>
       </c>
       <c r="J19" t="n">
-        <v>2.220455056046281e-14</v>
+        <v>2.220392179566892e-14</v>
       </c>
       <c r="K19" t="n">
-        <v>2.22045505604628e-14</v>
+        <v>2.220392179566892e-14</v>
       </c>
       <c r="L19" t="n">
-        <v>2.22045505604628e-14</v>
+        <v>2.220392179566892e-14</v>
       </c>
       <c r="M19" t="n">
-        <v>2.22045505604628e-14</v>
+        <v>2.220392179566892e-14</v>
       </c>
       <c r="N19" t="n">
-        <v>7.862223926489639e-06</v>
+        <v>8.936592409159546e-07</v>
       </c>
       <c r="O19" t="n">
-        <v>2.220455056046281e-14</v>
+        <v>2.220392179566892e-14</v>
       </c>
       <c r="P19" t="n">
-        <v>2.220455056046281e-14</v>
+        <v>2.220392179566892e-14</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.220455056046281e-14</v>
+        <v>2.220392179566892e-14</v>
       </c>
       <c r="R19" t="n">
-        <v>2.220455056046281e-14</v>
+        <v>2.220392179566892e-14</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9999724072843058</v>
+        <v>0.9993797809570497</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -1822,62 +1822,62 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG823.fasta</t>
+          <t>RUG833.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.220425246577723e-14</v>
+        <v>2.220628723551378e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>2.220425246577723e-14</v>
+        <v>2.220628723551378e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>2.220425246577723e-14</v>
+        <v>2.220628723551378e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>2.220425246577723e-14</v>
+        <v>2.220628723551378e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0.000425528091543993</v>
+        <v>6.127582643391348e-07</v>
       </c>
       <c r="G20" t="n">
-        <v>2.220425246577723e-14</v>
+        <v>2.220628723551378e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>2.220425246577723e-14</v>
+        <v>2.220628723551378e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9995731715167206</v>
+        <v>0.9999974106072654</v>
       </c>
       <c r="J20" t="n">
-        <v>2.220425246577723e-14</v>
+        <v>2.220628723551378e-14</v>
       </c>
       <c r="K20" t="n">
-        <v>2.220425246577723e-14</v>
+        <v>2.220628723551377e-14</v>
       </c>
       <c r="L20" t="n">
-        <v>2.220425246577723e-14</v>
+        <v>2.220628723551377e-14</v>
       </c>
       <c r="M20" t="n">
-        <v>2.220425246577723e-14</v>
+        <v>2.220628723551377e-14</v>
       </c>
       <c r="N20" t="n">
-        <v>1.300391424552841e-06</v>
+        <v>1.976634159433261e-06</v>
       </c>
       <c r="O20" t="n">
-        <v>2.220425246577723e-14</v>
+        <v>2.220628723551377e-14</v>
       </c>
       <c r="P20" t="n">
-        <v>2.220425246577723e-14</v>
+        <v>2.220628723551377e-14</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.220425246577723e-14</v>
+        <v>2.220628723551377e-14</v>
       </c>
       <c r="R20" t="n">
-        <v>2.220425246577723e-14</v>
+        <v>2.220628723551377e-14</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9995731715167206</v>
+        <v>0.9999974106072654</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
